--- a/Whisky_List_Master.xlsx
+++ b/Whisky_List_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838BB681-931A-4117-A878-BE24DEB827DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A7483-46B4-4B96-9A86-45C046D1AF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3840" windowWidth="21600" windowHeight="12645" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="676">
   <si>
     <t>番号</t>
   </si>
@@ -2230,6 +2230,10 @@
     <rPh sb="0" eb="2">
       <t>ドスウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TASTER 11年 BRUICHLADDICH2012</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2407,7 +2411,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2755,9 +2759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2061EB35-3899-4195-AE73-2ED475476BB1}">
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z98" sqref="Z98"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6744,7 +6748,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>301</v>
+        <v>675</v>
       </c>
       <c r="C51" s="9">
         <v>10900</v>

--- a/Whisky_List_Master.xlsx
+++ b/Whisky_List_Master.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48BA46-D61C-4DAA-939C-C85EEAD0D411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41771771-A91E-4FC1-8FF6-58F17C8B5F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="2805" windowWidth="21600" windowHeight="12645" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="印刷用" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">印刷用!$A$1:$J$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="694">
   <si>
     <t>番号</t>
   </si>
@@ -2436,6 +2438,17 @@
   </si>
   <si>
     <t>ORKNEY　2000-2018　The City Life</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>津貫2018-2021 ５周年記念ボトル</t>
+    <rPh sb="0" eb="2">
+      <t>ツヌキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OLD FETTERCAIRN　８０年代</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2607,7 +2620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2674,6 +2687,33 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3010,12 +3050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2061EB35-3899-4195-AE73-2ED475476BB1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3048,7 +3087,7 @@
     <col min="27" max="27" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3170,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3216,7 +3255,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3301,7 +3340,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3386,7 +3425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3471,7 +3510,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3556,7 +3595,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3623,7 +3662,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3632,14 +3671,14 @@
       </c>
       <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="21">
         <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E8" s="21">
         <v>15700</v>
-      </c>
-      <c r="E8" s="21">
-        <v>115000</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -3708,7 +3747,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3793,7 +3832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3878,7 +3917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="95.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="95.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3963,7 +4002,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4048,7 +4087,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4133,7 +4172,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4142,14 +4181,14 @@
       </c>
       <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="21">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -4218,7 +4257,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -4303,7 +4342,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -4386,7 +4425,7 @@
       </c>
       <c r="AA16" s="14"/>
     </row>
-    <row r="17" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -4471,7 +4510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -4480,14 +4519,14 @@
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="D18" s="21">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>2100</v>
       </c>
       <c r="E18" s="21">
-        <v>35000</v>
+        <v>15100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -4556,7 +4595,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -4565,14 +4604,14 @@
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>6800</v>
       </c>
       <c r="D19" s="21">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>13500</v>
       </c>
       <c r="E19" s="21">
-        <v>35100</v>
+        <v>99000</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
@@ -4641,7 +4680,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -4726,7 +4765,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -4735,14 +4774,14 @@
       </c>
       <c r="C21" s="20">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>2600</v>
       </c>
       <c r="D21" s="21">
         <f t="shared" si="1"/>
-        <v>13500</v>
+        <v>5100</v>
       </c>
       <c r="E21" s="21">
-        <v>99000</v>
+        <v>37400</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -4811,7 +4850,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="147.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -4896,7 +4935,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -4905,14 +4944,14 @@
       </c>
       <c r="C23" s="20">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="D23" s="21">
         <f t="shared" si="1"/>
-        <v>5100</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="21">
-        <v>37400</v>
+        <v>13500</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>16</v>
@@ -4981,7 +5020,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -5066,7 +5105,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="63.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -5075,14 +5114,14 @@
       </c>
       <c r="C25" s="20">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D25" s="21">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E25" s="21">
-        <v>13500</v>
+        <v>8600</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
@@ -5151,7 +5190,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -5160,14 +5199,14 @@
       </c>
       <c r="C26" s="20">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D26" s="21">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="21">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
@@ -5236,7 +5275,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -5319,7 +5358,7 @@
       </c>
       <c r="AA27" s="14"/>
     </row>
-    <row r="28" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -5404,7 +5443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -5413,14 +5452,14 @@
       </c>
       <c r="C29" s="20">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="D29" s="21">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E29" s="21">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
@@ -5489,7 +5528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -5574,7 +5613,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -5657,7 +5696,7 @@
       </c>
       <c r="AA31" s="14"/>
     </row>
-    <row r="32" spans="1:27" ht="126.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -5666,14 +5705,14 @@
       </c>
       <c r="C32" s="20">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D32" s="21">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>6000</v>
       </c>
       <c r="E32" s="21">
-        <v>13800</v>
+        <v>44000</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
@@ -5742,7 +5781,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="147.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -5827,7 +5866,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="147.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -5836,14 +5875,14 @@
       </c>
       <c r="C34" s="20">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="D34" s="21">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="E34" s="21">
-        <v>44000</v>
+        <v>33000</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>16</v>
@@ -5912,7 +5951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -5997,7 +6036,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -6080,7 +6119,7 @@
       </c>
       <c r="AA36" s="14"/>
     </row>
-    <row r="37" spans="1:27" ht="111" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="111" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -6089,14 +6128,14 @@
       </c>
       <c r="C37" s="20">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D37" s="21">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E37" s="21">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
@@ -6165,7 +6204,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -6174,14 +6213,14 @@
       </c>
       <c r="C38" s="20">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="D38" s="21">
         <f t="shared" si="1"/>
-        <v>4400</v>
+        <v>6800</v>
       </c>
       <c r="E38" s="21">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
@@ -6250,7 +6289,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -6335,7 +6374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -6420,7 +6459,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -6503,7 +6542,7 @@
       </c>
       <c r="AA41" s="14"/>
     </row>
-    <row r="42" spans="1:27" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -6512,14 +6551,14 @@
       </c>
       <c r="C42" s="20">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="D42" s="21">
         <f t="shared" si="1"/>
-        <v>4100</v>
+        <v>2700</v>
       </c>
       <c r="E42" s="21">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>16</v>
@@ -6570,7 +6609,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -6579,14 +6618,14 @@
       </c>
       <c r="C43" s="20">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="D43" s="21">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c r="E43" s="21">
-        <v>32890</v>
+        <v>21000</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>16</v>
@@ -6655,7 +6694,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -6664,14 +6703,14 @@
       </c>
       <c r="C44" s="20">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D44" s="21">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="21">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>16</v>
@@ -6740,23 +6779,23 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>260</v>
+        <v>692</v>
       </c>
       <c r="C45" s="20">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D45" s="21">
         <f t="shared" si="1"/>
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="21">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>16</v>
@@ -6825,7 +6864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -6910,23 +6949,23 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>268</v>
+        <v>693</v>
       </c>
       <c r="C47" s="20">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>3400</v>
       </c>
       <c r="D47" s="21">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>6800</v>
       </c>
       <c r="E47" s="21">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>16</v>
@@ -6995,7 +7034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="126.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -7004,14 +7043,14 @@
       </c>
       <c r="C48" s="20">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D48" s="21">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>7900</v>
       </c>
       <c r="E48" s="21">
-        <v>15000</v>
+        <v>58000</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>16</v>
@@ -7080,7 +7119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" ht="63.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -7089,14 +7128,14 @@
       </c>
       <c r="C49" s="20">
         <f t="shared" si="0"/>
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="21">
         <f t="shared" si="1"/>
-        <v>6800</v>
+        <v>2100</v>
       </c>
       <c r="E49" s="21">
-        <v>50000</v>
+        <v>15400</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>16</v>
@@ -7165,7 +7204,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -7174,14 +7213,14 @@
       </c>
       <c r="C50" s="20">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="1"/>
-        <v>7900</v>
+        <v>10900</v>
       </c>
       <c r="E50" s="21">
-        <v>58000</v>
+        <v>80000</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>16</v>
@@ -7250,7 +7289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -7259,14 +7298,14 @@
       </c>
       <c r="C51" s="20">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E51" s="21">
-        <v>15400</v>
+        <v>18200</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>16</v>
@@ -7335,7 +7374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -7420,7 +7459,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="126.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -7505,7 +7544,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -7514,14 +7553,14 @@
       </c>
       <c r="C54" s="20">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="D54" s="21">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="E54" s="21">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>16</v>
@@ -7590,7 +7629,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -7675,7 +7714,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -7684,14 +7723,14 @@
       </c>
       <c r="C56" s="20">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="D56" s="21">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="E56" s="21">
-        <v>31000</v>
+        <v>44000</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>16</v>
@@ -7760,7 +7799,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -7769,14 +7808,14 @@
       </c>
       <c r="C57" s="20">
         <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="D57" s="21">
         <f t="shared" si="1"/>
-        <v>5600</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="21">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>16</v>
@@ -7845,7 +7884,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -7930,7 +7969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -8015,7 +8054,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -8024,14 +8063,14 @@
       </c>
       <c r="C60" s="20">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="D60" s="21">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="E60" s="21">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>16</v>
@@ -8100,7 +8139,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -8109,14 +8148,14 @@
       </c>
       <c r="C61" s="20">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>2100</v>
       </c>
       <c r="D61" s="21">
         <f t="shared" si="1"/>
-        <v>9300</v>
+        <v>4100</v>
       </c>
       <c r="E61" s="21">
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>16</v>
@@ -8185,7 +8224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -8270,7 +8309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -8279,14 +8318,14 @@
       </c>
       <c r="C63" s="20">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="D63" s="21">
         <f t="shared" si="1"/>
-        <v>4100</v>
+        <v>6800</v>
       </c>
       <c r="E63" s="21">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>16</v>
@@ -8355,7 +8394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="147.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:27" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -8364,14 +8403,14 @@
       </c>
       <c r="C64" s="20">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="D64" s="21">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="E64" s="21">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>16</v>
@@ -8440,7 +8479,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -8449,14 +8488,14 @@
       </c>
       <c r="C65" s="20">
         <f t="shared" si="0"/>
-        <v>3400</v>
+        <v>1300</v>
       </c>
       <c r="D65" s="21">
         <f t="shared" si="1"/>
-        <v>6800</v>
+        <v>2600</v>
       </c>
       <c r="E65" s="21">
-        <v>50000</v>
+        <v>18700</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>16</v>
@@ -8525,7 +8564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -8538,10 +8577,10 @@
       </c>
       <c r="D66" s="21">
         <f t="shared" si="1"/>
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E66" s="21">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>16</v>
@@ -8610,7 +8649,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -8695,7 +8734,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -8778,7 +8817,7 @@
       </c>
       <c r="AA68" s="14"/>
     </row>
-    <row r="69" spans="1:27" ht="147.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:27" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -8787,14 +8826,14 @@
       </c>
       <c r="C69" s="20">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="D69" s="21">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E69" s="21">
-        <v>16000</v>
+        <v>31900</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>16</v>
@@ -8863,7 +8902,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -8872,14 +8911,14 @@
       </c>
       <c r="C70" s="20">
         <f t="shared" si="2"/>
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="D70" s="21">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="E70" s="21">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>16</v>
@@ -8948,7 +8987,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -8957,14 +8996,14 @@
       </c>
       <c r="C71" s="20">
         <f t="shared" si="2"/>
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="D71" s="21">
         <f t="shared" si="3"/>
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="E71" s="21">
-        <v>31900</v>
+        <v>40000</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>16</v>
@@ -9033,7 +9072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="15">
         <v>72</v>
       </c>
@@ -9042,14 +9081,14 @@
       </c>
       <c r="C72" s="20">
         <f t="shared" si="2"/>
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="D72" s="21">
         <f t="shared" si="3"/>
-        <v>6800</v>
+        <v>1900</v>
       </c>
       <c r="E72" s="21">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>16</v>
@@ -9118,7 +9157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -9127,14 +9166,14 @@
       </c>
       <c r="C73" s="20">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="D73" s="21">
         <f t="shared" si="3"/>
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="E73" s="21">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>16</v>
@@ -9203,7 +9242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -9288,7 +9327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="147.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:27" ht="147.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -9297,14 +9336,14 @@
       </c>
       <c r="C75" s="20">
         <f t="shared" si="2"/>
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" si="3"/>
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="E75" s="21">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>16</v>
@@ -9371,7 +9410,7 @@
       </c>
       <c r="AA75" s="14"/>
     </row>
-    <row r="76" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -9380,14 +9419,14 @@
       </c>
       <c r="C76" s="20">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="D76" s="21">
         <f t="shared" si="3"/>
-        <v>1700</v>
+        <v>6500</v>
       </c>
       <c r="E76" s="21">
-        <v>12500</v>
+        <v>48000</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>16</v>
@@ -9456,7 +9495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -9465,14 +9504,14 @@
       </c>
       <c r="C77" s="20">
         <f t="shared" si="2"/>
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="D77" s="21">
         <f t="shared" si="3"/>
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="E77" s="21">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>16</v>
@@ -9541,7 +9580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -9550,14 +9589,14 @@
       </c>
       <c r="C78" s="20">
         <f t="shared" si="2"/>
-        <v>3300</v>
+        <v>1200</v>
       </c>
       <c r="D78" s="21">
         <f t="shared" si="3"/>
-        <v>6500</v>
+        <v>2400</v>
       </c>
       <c r="E78" s="21">
-        <v>48000</v>
+        <v>17600</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>16</v>
@@ -9626,7 +9665,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -9711,7 +9750,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -9720,14 +9759,14 @@
       </c>
       <c r="C80" s="20">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="D80" s="21">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E80" s="21">
-        <v>17600</v>
+        <v>9900</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>16</v>
@@ -9796,7 +9835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -9805,14 +9844,14 @@
       </c>
       <c r="C81" s="20">
         <f t="shared" si="2"/>
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="D81" s="21">
         <f t="shared" si="3"/>
-        <v>5400</v>
+        <v>1400</v>
       </c>
       <c r="E81" s="21">
-        <v>39500</v>
+        <v>9900</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>16</v>
@@ -9881,7 +9920,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -9966,7 +10005,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="63" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -9975,14 +10014,14 @@
       </c>
       <c r="C83" s="20">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D83" s="21">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="21">
-        <v>9900</v>
+        <v>11600</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>16</v>
@@ -10051,7 +10090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -10060,14 +10099,14 @@
       </c>
       <c r="C84" s="20">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="D84" s="21">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="E84" s="21">
-        <v>9900</v>
+        <v>88000</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>16</v>
@@ -10136,7 +10175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="94.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="95.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -10145,14 +10184,14 @@
       </c>
       <c r="C85" s="20">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="D85" s="21">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="E85" s="21">
-        <v>11600</v>
+        <v>44000</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>16</v>
@@ -10201,7 +10240,7 @@
       </c>
       <c r="AA85" s="14"/>
     </row>
-    <row r="86" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -10286,7 +10325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -10295,14 +10334,14 @@
       </c>
       <c r="C87" s="20">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D87" s="21">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>2400</v>
       </c>
       <c r="E87" s="21">
-        <v>44000</v>
+        <v>17600</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>16</v>
@@ -10369,7 +10408,7 @@
       </c>
       <c r="AA87" s="14"/>
     </row>
-    <row r="88" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -10378,14 +10417,14 @@
       </c>
       <c r="C88" s="20">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="D88" s="21">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>2300</v>
       </c>
       <c r="E88" s="21">
-        <v>66000</v>
+        <v>16500</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>16</v>
@@ -10454,7 +10493,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -10539,7 +10578,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="63.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -10548,14 +10587,14 @@
       </c>
       <c r="C90" s="20">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="D90" s="21">
         <f t="shared" si="3"/>
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E90" s="21">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>16</v>
@@ -10624,7 +10663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -10709,7 +10748,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="189.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:27" ht="189.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -10794,7 +10833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="189.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:27" ht="189.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -10803,14 +10842,14 @@
       </c>
       <c r="C93" s="20">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="D93" s="21">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>6100</v>
       </c>
       <c r="E93" s="21">
-        <v>25300</v>
+        <v>45000</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>16</v>
@@ -10879,7 +10918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -10964,7 +11003,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="189.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:27" ht="189.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -10973,14 +11012,14 @@
       </c>
       <c r="C95" s="20">
         <f t="shared" si="2"/>
-        <v>3100</v>
+        <v>1400</v>
       </c>
       <c r="D95" s="21">
         <f t="shared" si="3"/>
-        <v>6100</v>
+        <v>2700</v>
       </c>
       <c r="E95" s="21">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>16</v>
@@ -11049,7 +11088,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="168.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -11134,7 +11173,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="84.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -11217,7 +11256,7 @@
       </c>
       <c r="AA97" s="14"/>
     </row>
-    <row r="98" spans="1:27" ht="189.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:27" ht="189.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -11226,14 +11265,14 @@
       </c>
       <c r="C98" s="20">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="D98" s="21">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="E98" s="21">
-        <v>13800</v>
+        <v>20000</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>16</v>
@@ -11302,7 +11341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -11311,14 +11350,14 @@
       </c>
       <c r="C99" s="20">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D99" s="21">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E99" s="21">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>16</v>
@@ -11387,7 +11426,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -11396,14 +11435,14 @@
       </c>
       <c r="C100" s="20">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="D100" s="21">
         <f t="shared" si="3"/>
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="21">
-        <v>20000</v>
+        <v>7700</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>16</v>
@@ -11472,7 +11511,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -11481,14 +11520,14 @@
       </c>
       <c r="C101" s="20">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="D101" s="21">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="21">
-        <v>17600</v>
+        <v>40000</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>16</v>
@@ -11557,7 +11596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -11566,14 +11605,14 @@
       </c>
       <c r="C102" s="20">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D102" s="21">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="E102" s="21">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>16</v>
@@ -11642,7 +11681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" ht="63" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -11727,7 +11766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" ht="63.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -11812,7 +11851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -11897,7 +11936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="126.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:27" ht="126.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -11906,14 +11945,14 @@
       </c>
       <c r="C106" s="20">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>4900</v>
       </c>
       <c r="D106" s="21">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>9800</v>
       </c>
       <c r="E106" s="21">
-        <v>7000</v>
+        <v>72000</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>16</v>
@@ -11982,7 +12021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -11991,14 +12030,14 @@
       </c>
       <c r="C107" s="20">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="D107" s="21">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="E107" s="21">
-        <v>17600</v>
+        <v>24200</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>16</v>
@@ -12150,7 +12189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="20">
@@ -12180,11 +12219,9 @@
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12"/>
-      <c r="AA109" s="14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA109" s="14"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="20">
@@ -12214,11 +12251,9 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12"/>
-      <c r="AA110" s="14">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA110" s="14"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="20">
@@ -12248,11 +12283,9 @@
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
-      <c r="AA111" s="14">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA111" s="14"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="20">
@@ -12282,11 +12315,9 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
-      <c r="AA112" s="17">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA112" s="17"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="20">
@@ -12316,11 +12347,9 @@
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
       <c r="Z113" s="12"/>
-      <c r="AA113" s="17">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA113" s="17"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="20">
@@ -12350,11 +12379,9 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
-      <c r="AA114" s="17">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA114" s="17"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="20">
@@ -12384,22 +12411,4006 @@
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
       <c r="Z115" s="12"/>
-      <c r="AA115" s="17">
-        <v>43</v>
-      </c>
+      <c r="AA115" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S115" xr:uid="{2061EB35-3899-4195-AE73-2ED475476BB1}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="桜尾蒸溜所"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S108">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC4867F-3866-40A8-82D4-30FA4818BDA5}">
+  <dimension ref="A1:K108"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="25">
+        <f>ROUND(D2/2, -2)</f>
+        <v>40300</v>
+      </c>
+      <c r="D2" s="26">
+        <f>ROUND(E2/22*3, -2)</f>
+        <v>80500</v>
+      </c>
+      <c r="E2" s="26">
+        <v>590000</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="28">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" ref="C3:C67" si="0">ROUND(D3/2, -2)</f>
+        <v>10300</v>
+      </c>
+      <c r="D3" s="26">
+        <f t="shared" ref="D3:D67" si="1">ROUND(E3/22*3, -2)</f>
+        <v>20500</v>
+      </c>
+      <c r="E3" s="26">
+        <v>150000</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="28">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" si="1"/>
+        <v>12300</v>
+      </c>
+      <c r="E4" s="26">
+        <v>90000</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="E5" s="26">
+        <v>110000</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="28">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>8300</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="1"/>
+        <v>16500</v>
+      </c>
+      <c r="E6" s="26">
+        <v>121000</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="28">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="E7" s="26">
+        <v>110000</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="28">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>15700</v>
+      </c>
+      <c r="E8" s="26">
+        <v>115000</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="28">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="E9" s="26">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+      <c r="E10" s="26">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+      <c r="E11" s="26">
+        <v>38000</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="28">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="E12" s="26">
+        <v>22800</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="28">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E13" s="26">
+        <v>33000</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="28">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="C14" s="25">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E14" s="26">
+        <v>33000</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="28">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A15" s="24">
+        <v>15</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="E15" s="26">
+        <v>35100</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="28">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A16" s="24">
+        <v>16</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="E16" s="26">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="24">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="E17" s="26">
+        <v>35100</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A18" s="24">
+        <v>18</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="E18" s="26">
+        <v>35000</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="28">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="E19" s="26">
+        <v>35100</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="28">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A20" s="24">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E20" s="26">
+        <v>13200</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="28">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="25">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="E21" s="26">
+        <v>99000</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="28">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A22" s="24">
+        <v>22</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="C22" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E22" s="26">
+        <v>14300</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="28">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>23</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="25">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+      <c r="E23" s="26">
+        <v>37400</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="28">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E24" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="28">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="24">
+        <v>25</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E25" s="26">
+        <v>13500</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="28">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A26" s="24">
+        <v>26</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E26" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="28">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A27" s="24">
+        <v>27</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="E27" s="26">
+        <v>8600</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A28" s="24">
+        <v>28</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E28" s="26">
+        <v>13000</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A29" s="24">
+        <v>29</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E29" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A30" s="24">
+        <v>30</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="C30" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="E30" s="26">
+        <v>13800</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="28">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="24">
+        <v>31</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="C31" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E31" s="26">
+        <v>13000</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A32" s="24">
+        <v>32</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="E32" s="26">
+        <v>13800</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" s="28">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A33" s="24">
+        <v>33</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="C33" s="25">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+      <c r="E33" s="26">
+        <v>21000</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" s="28">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A34" s="24">
+        <v>34</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="E34" s="26">
+        <v>44000</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A35" s="24">
+        <v>35</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="E35" s="26">
+        <v>12100</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="28">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="24">
+        <v>36</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C36" s="25">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+      <c r="E36" s="26">
+        <v>32000</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="24">
+        <v>37</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="E37" s="26">
+        <v>12100</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="28">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A38" s="24">
+        <v>38</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="25">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+      <c r="E38" s="26">
+        <v>32000</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" s="28">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="24">
+        <v>39</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="C39" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E39" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A40" s="24">
+        <v>40</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" s="25">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+      <c r="E40" s="26">
+        <v>30000</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="28">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A41" s="24">
+        <v>41</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C41" s="25">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E41" s="26">
+        <v>32890</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="24">
+        <v>42</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="25">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+      <c r="E42" s="26">
+        <v>30000</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="28">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A43" s="24">
+        <v>43</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="25">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E43" s="26">
+        <v>32890</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="28">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="24">
+        <v>44</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="C44" s="25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D44" s="26">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="E44" s="26">
+        <v>12500</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="28">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="24">
+        <v>45</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="25">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+      <c r="E45" s="26">
+        <v>21000</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="K45" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A46" s="24">
+        <v>46</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E46" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="28">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="24">
+        <v>47</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="25">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="E47" s="26">
+        <v>20000</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="24">
+        <v>48</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D48" s="26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="E48" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="24">
+        <v>49</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="25">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="D49" s="26">
+        <f t="shared" si="1"/>
+        <v>6800</v>
+      </c>
+      <c r="E49" s="26">
+        <v>50000</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49" s="28">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="24">
+        <v>50</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="25">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D50" s="26">
+        <f t="shared" si="1"/>
+        <v>7900</v>
+      </c>
+      <c r="E50" s="26">
+        <v>58000</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A51" s="24">
+        <v>51</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" s="25">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D51" s="26">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E51" s="26">
+        <v>15400</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="24">
+        <v>52</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="C52" s="25">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="D52" s="26">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
+      <c r="E52" s="26">
+        <v>27000</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="28">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A53" s="24">
+        <v>53</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="C53" s="25">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D53" s="26">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="E53" s="26">
+        <v>12000</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="28">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A54" s="24">
+        <v>54</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="C54" s="25">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="D54" s="26">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
+      <c r="E54" s="26">
+        <v>27000</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="28">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A55" s="24">
+        <v>55</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="C55" s="25">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="D55" s="26">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+      <c r="E55" s="26">
+        <v>41000</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="28">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="24">
+        <v>56</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" s="25">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D56" s="26">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="E56" s="26">
+        <v>31000</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K56" s="28">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A57" s="24">
+        <v>57</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="25">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="D57" s="26">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+      <c r="E57" s="26">
+        <v>41000</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" s="28">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A58" s="24">
+        <v>58</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="C58" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D58" s="26">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="E58" s="26">
+        <v>35000</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K58" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A59" s="24">
+        <v>59</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="C59" s="25">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="D59" s="26">
+        <f t="shared" si="1"/>
+        <v>9300</v>
+      </c>
+      <c r="E59" s="26">
+        <v>68000</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A60" s="24">
+        <v>60</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="25">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D60" s="26">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="E60" s="26">
+        <v>35000</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" s="28">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A61" s="24">
+        <v>61</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="25">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="D61" s="26">
+        <f t="shared" si="1"/>
+        <v>9300</v>
+      </c>
+      <c r="E61" s="26">
+        <v>68000</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="K61" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A62" s="24">
+        <v>62</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="C62" s="25">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D62" s="26">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E62" s="26">
+        <v>33000</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K62" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="24">
+        <v>63</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C63" s="25">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="D63" s="26">
+        <f t="shared" si="1"/>
+        <v>4100</v>
+      </c>
+      <c r="E63" s="26">
+        <v>30000</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K63" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A64" s="24">
+        <v>64</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="25">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D64" s="26">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E64" s="26">
+        <v>33000</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="K64" s="28">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="24">
+        <v>65</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" s="25">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="D65" s="26">
+        <f t="shared" si="1"/>
+        <v>6800</v>
+      </c>
+      <c r="E65" s="26">
+        <v>50000</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K65" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A66" s="24">
+        <v>66</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="25">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="D66" s="26">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="E66" s="26">
+        <v>25000</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="28">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="24">
+        <v>67</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="C67" s="25">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D67" s="26">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="E67" s="26">
+        <v>16000</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" s="28">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A68" s="24">
+        <v>68</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C68" s="25">
+        <f t="shared" ref="C68:C108" si="2">ROUND(D68/2, -2)</f>
+        <v>3800</v>
+      </c>
+      <c r="D68" s="26">
+        <f t="shared" ref="D68:D108" si="3">ROUND(E68/22*3, -2)</f>
+        <v>7500</v>
+      </c>
+      <c r="E68" s="26">
+        <v>55000</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="28"/>
+    </row>
+    <row r="69" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A69" s="24">
+        <v>69</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="25">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="D69" s="26">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+      <c r="E69" s="26">
+        <v>16000</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="28">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A70" s="24">
+        <v>70</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C70" s="25">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="D70" s="26">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+      <c r="E70" s="26">
+        <v>55000</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K70" s="28">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A71" s="24">
+        <v>71</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C71" s="25">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="D71" s="26">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+      <c r="E71" s="26">
+        <v>31900</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K71" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A72" s="30">
+        <v>72</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C72" s="25">
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+      <c r="D72" s="26">
+        <f t="shared" si="3"/>
+        <v>6800</v>
+      </c>
+      <c r="E72" s="26">
+        <v>50000</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A73" s="24">
+        <v>73</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="25">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="D73" s="26">
+        <f t="shared" si="3"/>
+        <v>5500</v>
+      </c>
+      <c r="E73" s="26">
+        <v>40000</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K73" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A74" s="24">
+        <v>74</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="C74" s="25">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D74" s="26">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="E74" s="26">
+        <v>12500</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A75" s="24">
+        <v>75</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="25">
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+      <c r="D75" s="26">
+        <f t="shared" si="3"/>
+        <v>6800</v>
+      </c>
+      <c r="E75" s="26">
+        <v>50000</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="28"/>
+    </row>
+    <row r="76" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A76" s="24">
+        <v>76</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" s="25">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D76" s="26">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="E76" s="26">
+        <v>12500</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K76" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A77" s="24">
+        <v>77</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" s="25">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="D77" s="26">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="E77" s="26">
+        <v>25000</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="K77" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A78" s="24">
+        <v>78</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C78" s="25">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="D78" s="26">
+        <f t="shared" si="3"/>
+        <v>6500</v>
+      </c>
+      <c r="E78" s="26">
+        <v>48000</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K78" s="28">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A79" s="24">
+        <v>79</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="C79" s="25">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="D79" s="26">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="E79" s="26">
+        <v>39500</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="I79" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="28">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A80" s="24">
+        <v>80</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C80" s="25">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D80" s="26">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="E80" s="26">
+        <v>17600</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K80" s="28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A81" s="24">
+        <v>81</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C81" s="25">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="D81" s="26">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="E81" s="26">
+        <v>39500</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I81" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K81" s="28">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A82" s="24">
+        <v>82</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C82" s="25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="D82" s="26">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="E82" s="26">
+        <v>9900</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K82" s="28">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A83" s="24">
+        <v>83</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="C83" s="25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="D83" s="26">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="E83" s="26">
+        <v>9900</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="K83" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A84" s="24">
+        <v>84</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C84" s="25">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="D84" s="26">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="E84" s="26">
+        <v>9900</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K84" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A85" s="24">
+        <v>85</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C85" s="25">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="D85" s="26">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="E85" s="26">
+        <v>11600</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="28"/>
+    </row>
+    <row r="86" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A86" s="24">
+        <v>86</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="C86" s="25">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="D86" s="26">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="E86" s="26">
+        <v>66000</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K86" s="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A87" s="24">
+        <v>87</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C87" s="25">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="D87" s="26">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="E87" s="26">
+        <v>44000</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="K87" s="28"/>
+    </row>
+    <row r="88" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A88" s="24">
+        <v>88</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C88" s="25">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="D88" s="26">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="E88" s="26">
+        <v>66000</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K88" s="28">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A89" s="24">
+        <v>89</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="C89" s="25">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="D89" s="26">
+        <f t="shared" si="3"/>
+        <v>4700</v>
+      </c>
+      <c r="E89" s="26">
+        <v>34100</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K89" s="28">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A90" s="24">
+        <v>90</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" s="25">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D90" s="26">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="E90" s="26">
+        <v>16500</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K90" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A91" s="24">
+        <v>91</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="C91" s="25">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="D91" s="26">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="E91" s="26">
+        <v>25300</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="28">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A92" s="24">
+        <v>92</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="C92" s="25">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="D92" s="26">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+      <c r="E92" s="26">
+        <v>32000</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K92" s="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A93" s="24">
+        <v>93</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C93" s="25">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="D93" s="26">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="E93" s="26">
+        <v>25300</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A94" s="24">
+        <v>94</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="C94" s="25">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="D94" s="26">
+        <f t="shared" si="3"/>
+        <v>4900</v>
+      </c>
+      <c r="E94" s="26">
+        <v>36000</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I94" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J94" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K94" s="28">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A95" s="24">
+        <v>95</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C95" s="25">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+      <c r="D95" s="26">
+        <f t="shared" si="3"/>
+        <v>6100</v>
+      </c>
+      <c r="E95" s="26">
+        <v>45000</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="I95" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="J95" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95" s="28">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="63" x14ac:dyDescent="0.4">
+      <c r="A96" s="24">
+        <v>96</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="C96" s="25">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="D96" s="26">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="E96" s="26">
+        <v>13800</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="J96" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" s="28">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="24">
+        <v>97</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" s="25">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="D97" s="26">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="E97" s="26">
+        <v>14500</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="H97" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J97" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="28"/>
+    </row>
+    <row r="98" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A98" s="24">
+        <v>98</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" s="25">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="D98" s="26">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="E98" s="26">
+        <v>13800</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="I98" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="J98" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K98" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A99" s="24">
+        <v>99</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" s="25">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="D99" s="26">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="E99" s="26">
+        <v>14500</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I99" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="K99" s="28">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A100" s="24">
+        <v>100</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C100" s="25">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="D100" s="26">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="E100" s="26">
+        <v>20000</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="J100" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="K100" s="28">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A101" s="24">
+        <v>101</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C101" s="25">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D101" s="26">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="E101" s="26">
+        <v>17600</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="I101" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="J101" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K101" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A102" s="24">
+        <v>102</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="C102" s="25">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="D102" s="26">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="E102" s="26">
+        <v>7700</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I102" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J102" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K102" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A103" s="24">
+        <v>103</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="C103" s="25">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="D103" s="26">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="E103" s="26">
+        <v>11000</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="I103" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="K103" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A104" s="24">
+        <v>104</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C104" s="25">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D104" s="26">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="E104" s="26">
+        <v>7000</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="K104" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A105" s="24">
+        <v>105</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="C105" s="25">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D105" s="26">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="E105" s="26">
+        <v>17600</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="H105" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="I105" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="J105" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="K105" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+      <c r="A106" s="24">
+        <v>106</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C106" s="25">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D106" s="26">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="E106" s="26">
+        <v>7000</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="I106" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="J106" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K106" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A107" s="24">
+        <v>107</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="C107" s="25">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D107" s="26">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="E107" s="26">
+        <v>17600</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="I107" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="J107" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="K107" s="28"/>
+    </row>
+    <row r="108" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A108" s="24">
+        <v>108</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C108" s="25">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="D108" s="26">
+        <f t="shared" si="3"/>
+        <v>3100</v>
+      </c>
+      <c r="E108" s="26">
+        <v>22500</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="I108" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="K108" s="28">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J108" xr:uid="{2061EB35-3899-4195-AE73-2ED475476BB1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J108">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Whisky_List_Master.xlsx
+++ b/Whisky_List_Master.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41771771-A91E-4FC1-8FF6-58F17C8B5F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCEB55-A365-45BB-BF54-3CA0C0C184CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
+    <workbookView xWindow="1845" yWindow="1200" windowWidth="23925" windowHeight="12510" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="印刷用" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">印刷用!$A$1:$J$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="714">
   <si>
     <t>番号</t>
   </si>
@@ -1474,9 +1474,6 @@
   </si>
   <si>
     <t>NAGAHAMA長浜シングルモルト2019-2022</t>
-  </si>
-  <si>
-    <t>長浜蒸留所の若いシングルモルトで、青りんごと洋梨の鮮やかな果実味に、バニラと軽いオークのニュアンスが感じられます。口当たりは穏やかな麦芽の甘さとかすかなスパイス、柑橘類の皮の風味がバランスよく広がります。クリーンな余韻にはハチミツと軽い花の香りが残ります。</t>
   </si>
   <si>
     <t>バニラ、ハチミツ、果樹園のフルーツの風味を持つ穏やかなスペイサイドモルト。19年の熟成により、微妙なオークスパイス、ローストナッツ、モルトのヒントが深みを増します。スムースでエレガントな味わいで、スイートバーレーと軽いスパイスが特徴の中程度の長さのフィニッシュ。</t>
@@ -2449,6 +2446,105 @@
   </si>
   <si>
     <t>OLD FETTERCAIRN　８０年代</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAILUAINE23年1997-2021 ART SESSION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGHLAND PARK1986-2006 PREMIRES CHOICE </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Speyside 1995-2021 26年 MALTBARN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NAGAHAMA長浜シングルモルト2019-2022</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KOVAL CASK(コーヴァル蒸留所のオーガニック原料のみを使用したクラフトウィスキー), NON PEATの長浜蒸留所の若いシングルモルトで、青りんごと洋梨の鮮やかな果実味に、バニラと軽いオークのニュアンスが感じられます。口当たりは穏やかな麦芽の甘さとかすかなスパイス、柑橘類の皮の風味がバランスよく広がります。クリーンな余韻にはハチミツと軽い花の香りが残ります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROYAL BRACKLA 2011-2021 Once upon a time…</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TALISKER　11年</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAILUAINE10年2011-2021 FINEST WHISKY BERLIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライヌリッシュ１８年　1997ー2022 ADELPHI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GLENGRANT25年1995 ASAYA EXCLUSIVE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローズバンク　1990年　イエコーン　19年</t>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mortlach 13年2007-2020</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sing malt sheets&amp;Veille (マッカランorグレンロセス)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ichiros MWR(Mizunara Wood Reserve)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ichiros WWR(Wine Wood Reserve)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAOL ILA2003-2017 Gordon&amp;Macphail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NAGAHAMA 乾杯会 DREAM OF CRAST DISTILLERY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長濱INAZUMA2021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YUZA遊佐2022ウィスキー</t>
+    <rPh sb="4" eb="6">
+      <t>ユサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桜尾2020-2023</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桜尾4年2020 Peated</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3053,8 +3149,8 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3095,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>661</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -3131,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>11</v>
@@ -3146,28 +3242,28 @@
         <v>14</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>534</v>
-      </c>
       <c r="Z1" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3231,25 +3327,25 @@
         <v>26</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U2" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="W2" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z2" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA2" s="14">
         <v>49.1</v>
@@ -3316,25 +3412,25 @@
         <v>36</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V3" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W3" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W3" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X3" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AA3" s="14">
         <v>56.2</v>
@@ -3345,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C4" s="20">
         <f t="shared" si="0"/>
@@ -3401,25 +3497,25 @@
         <v>42</v>
       </c>
       <c r="T4" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U4" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z4" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AA4" s="14">
         <v>45</v>
@@ -3486,25 +3582,25 @@
         <v>49</v>
       </c>
       <c r="T5" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y5" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U5" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z5" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AA5" s="14">
         <v>50.2</v>
@@ -3515,7 +3611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>703</v>
       </c>
       <c r="C6" s="20">
         <f t="shared" si="0"/>
@@ -3571,25 +3667,25 @@
         <v>58</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA6" s="14">
         <v>52.9</v>
@@ -3638,25 +3734,25 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="W7" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y7" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z7" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA7" s="14">
         <v>42.7</v>
@@ -3723,25 +3819,25 @@
         <v>71</v>
       </c>
       <c r="T8" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y8" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U8" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z8" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA8" s="14">
         <v>45.3</v>
@@ -3808,25 +3904,25 @@
         <v>77</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA9" s="14">
         <v>40</v>
@@ -3893,25 +3989,25 @@
         <v>84</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U10" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y10" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z10" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AA10" s="14">
         <v>43</v>
@@ -3922,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" si="0"/>
@@ -3939,7 +4035,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>18</v>
@@ -3978,25 +4074,25 @@
         <v>90</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V11" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W11" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W11" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X11" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AA11" s="14">
         <v>58.6</v>
@@ -4007,7 +4103,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" si="0"/>
@@ -4063,25 +4159,25 @@
         <v>97</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA12" s="14">
         <v>51.7</v>
@@ -4092,7 +4188,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>699</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" si="0"/>
@@ -4148,25 +4244,25 @@
         <v>104</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AA13" s="14">
         <v>53.2</v>
@@ -4177,7 +4273,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" si="0"/>
@@ -4194,16 +4290,16 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>106</v>
@@ -4218,7 +4314,7 @@
         <v>109</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>25</v>
@@ -4230,28 +4326,28 @@
         <v>140.36000000000001</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T14" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V14" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V14" s="12" t="s">
+      <c r="W14" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="W14" s="12" t="s">
-        <v>538</v>
-      </c>
       <c r="X14" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y14" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="Y14" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z14" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AA14" s="14">
         <v>53.2</v>
@@ -4262,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" si="0"/>
@@ -4318,25 +4414,25 @@
         <v>97</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AA15" s="14">
         <v>49.7</v>
@@ -4347,7 +4443,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>705</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" si="0"/>
@@ -4403,34 +4499,36 @@
         <v>42</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA16" s="14"/>
+        <v>553</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>693</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" si="0"/>
@@ -4486,25 +4584,25 @@
         <v>120</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V17" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y17" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W17" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y17" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z17" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA17" s="14">
         <v>58</v>
@@ -4515,7 +4613,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>700</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
@@ -4571,25 +4669,25 @@
         <v>120</v>
       </c>
       <c r="T18" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y18" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U18" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y18" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z18" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AA18" s="14">
         <v>49.7</v>
@@ -4600,7 +4698,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
@@ -4656,25 +4754,25 @@
         <v>128</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AA19" s="14">
         <v>48.1</v>
@@ -4741,25 +4839,25 @@
         <v>135</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AA20" s="14">
         <v>50.9</v>
@@ -4826,25 +4924,25 @@
         <v>140</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V21" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="W21" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y21" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V21" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y21" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z21" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AA21" s="14">
         <v>52.3</v>
@@ -4855,7 +4953,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" si="0"/>
@@ -4911,25 +5009,25 @@
         <v>149</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X22" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA22" s="14">
         <v>64.900000000000006</v>
@@ -4996,25 +5094,25 @@
         <v>155</v>
       </c>
       <c r="T23" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y23" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U23" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y23" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z23" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA23" s="14">
         <v>64.099999999999994</v>
@@ -5025,7 +5123,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="0"/>
@@ -5081,25 +5179,25 @@
         <v>160</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AA24" s="14">
         <v>54.6</v>
@@ -5110,7 +5208,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>710</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" si="0"/>
@@ -5166,28 +5264,28 @@
         <v>167</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AA25" s="14">
-        <v>64.900000000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -5195,7 +5293,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>704</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" si="0"/>
@@ -5251,25 +5349,25 @@
         <v>173</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AA26" s="14">
         <v>58.7</v>
@@ -5336,27 +5434,29 @@
         <v>173</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA27" s="14"/>
+        <v>564</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="28" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -5419,25 +5519,25 @@
         <v>181</v>
       </c>
       <c r="T28" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V28" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U28" s="12" t="s">
+      <c r="W28" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y28" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V28" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X28" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z28" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AA28" s="14">
         <v>47</v>
@@ -5504,25 +5604,25 @@
         <v>42</v>
       </c>
       <c r="T29" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V29" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U29" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="V29" s="12" t="s">
+      <c r="W29" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="W29" s="12" t="s">
-        <v>538</v>
-      </c>
       <c r="X29" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA29" s="14">
         <v>46</v>
@@ -5533,7 +5633,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="0"/>
@@ -5574,7 +5674,7 @@
         <v>192</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>25</v>
@@ -5589,25 +5689,25 @@
         <v>193</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X30" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA30" s="14">
         <v>52.9</v>
@@ -5618,7 +5718,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="0"/>
@@ -5659,7 +5759,7 @@
         <v>192</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>25</v>
@@ -5674,25 +5774,25 @@
         <v>198</v>
       </c>
       <c r="T31" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V31" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U31" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V31" s="12" t="s">
+      <c r="W31" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="W31" s="12" t="s">
-        <v>538</v>
-      </c>
       <c r="X31" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y31" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="Y31" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z31" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA31" s="14"/>
     </row>
@@ -5701,7 +5801,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>701</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="0"/>
@@ -5742,7 +5842,7 @@
         <v>24</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>25</v>
@@ -5757,25 +5857,25 @@
         <v>206</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA32" s="14">
         <v>50.5</v>
@@ -5786,7 +5886,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="0"/>
@@ -5842,25 +5942,25 @@
         <v>212</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA33" s="14">
         <v>62.5</v>
@@ -5927,25 +6027,25 @@
         <v>212</v>
       </c>
       <c r="T34" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y34" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U34" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W34" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X34" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y34" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z34" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA34" s="14">
         <v>62</v>
@@ -5956,7 +6056,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C35" s="20">
         <f t="shared" si="0"/>
@@ -6012,25 +6112,25 @@
         <v>220</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W35" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y35" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AA35" s="14">
         <v>55.5</v>
@@ -6041,7 +6141,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C36" s="20">
         <f t="shared" si="0"/>
@@ -6097,25 +6197,25 @@
         <v>49</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y36" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA36" s="14"/>
     </row>
@@ -6180,28 +6280,28 @@
         <v>49</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X37" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AA37" s="14">
-        <v>63.6</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6265,25 +6365,25 @@
         <v>233</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V38" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y38" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W38" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="X38" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y38" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z38" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AA38" s="14">
         <v>55.5</v>
@@ -6294,7 +6394,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C39" s="20">
         <f t="shared" si="0"/>
@@ -6350,25 +6450,25 @@
         <v>238</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W39" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AA39" s="14">
         <v>46</v>
@@ -6379,7 +6479,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C40" s="20">
         <f t="shared" si="0"/>
@@ -6435,25 +6535,25 @@
         <v>243</v>
       </c>
       <c r="T40" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X40" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y40" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U40" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W40" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X40" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y40" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z40" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AA40" s="14">
         <v>57.4</v>
@@ -6464,7 +6564,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C41" s="20">
         <f t="shared" si="0"/>
@@ -6520,25 +6620,25 @@
         <v>248</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W41" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AA41" s="14"/>
     </row>
@@ -6585,25 +6685,25 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y42" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U42" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V42" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W42" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X42" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y42" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z42" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA42" s="14">
         <v>54.1</v>
@@ -6670,28 +6770,28 @@
         <v>258</v>
       </c>
       <c r="T43" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V43" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U43" s="12" t="s">
+      <c r="W43" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y43" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V43" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W43" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X43" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y43" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z43" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA43" s="14">
-        <v>57.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6699,7 +6799,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C44" s="20">
         <f t="shared" si="0"/>
@@ -6755,25 +6855,25 @@
         <v>160</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W44" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X44" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y44" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AA44" s="14">
         <v>58.7</v>
@@ -6784,7 +6884,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C45" s="20">
         <f t="shared" si="0"/>
@@ -6840,28 +6940,28 @@
         <v>266</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V45" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W45" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X45" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y45" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA45" s="14">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -6869,7 +6969,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C46" s="20">
         <f t="shared" si="0"/>
@@ -6925,25 +7025,25 @@
         <v>160</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V46" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W46" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X46" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y46" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AA46" s="14">
         <v>52.3</v>
@@ -6954,7 +7054,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C47" s="20">
         <f t="shared" si="0"/>
@@ -7010,25 +7110,25 @@
         <v>243</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W47" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X47" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y47" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA47" s="14">
         <v>50</v>
@@ -7095,25 +7195,25 @@
         <v>277</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V48" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W48" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X48" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y48" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z48" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AA48" s="14">
         <v>61</v>
@@ -7124,7 +7224,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>278</v>
+        <v>709</v>
       </c>
       <c r="C49" s="20">
         <f t="shared" si="0"/>
@@ -7180,28 +7280,28 @@
         <v>167</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W49" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X49" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y49" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z49" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AA49" s="14">
-        <v>55.7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7265,28 +7365,28 @@
         <v>71</v>
       </c>
       <c r="T50" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U50" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W50" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X50" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y50" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U50" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V50" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W50" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X50" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y50" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z50" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AA50" s="14">
-        <v>43</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7294,7 +7394,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>285</v>
+        <v>708</v>
       </c>
       <c r="C51" s="20">
         <f t="shared" si="0"/>
@@ -7350,28 +7450,28 @@
         <v>238</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U51" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V51" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W51" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X51" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y51" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="X51" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y51" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="Z51" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AA51" s="14">
-        <v>40</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7379,7 +7479,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C52" s="20">
         <f t="shared" si="0"/>
@@ -7435,25 +7535,25 @@
         <v>292</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U52" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V52" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y52" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W52" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X52" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y52" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z52" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AA52" s="14">
         <v>52.4</v>
@@ -7464,7 +7564,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C53" s="20">
         <f t="shared" si="0"/>
@@ -7520,25 +7620,25 @@
         <v>296</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U53" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V53" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W53" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W53" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X53" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y53" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA53" s="14">
         <v>57.3</v>
@@ -7549,7 +7649,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="C54" s="20">
         <f t="shared" si="0"/>
@@ -7605,28 +7705,28 @@
         <v>301</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U54" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V54" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W54" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X54" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y54" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA54" s="14">
-        <v>55.5</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -7634,7 +7734,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C55" s="20">
         <f t="shared" si="0"/>
@@ -7690,25 +7790,25 @@
         <v>306</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U55" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V55" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W55" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X55" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y55" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA55" s="14">
         <v>52.4</v>
@@ -7775,25 +7875,25 @@
         <v>313</v>
       </c>
       <c r="T56" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U56" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V56" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X56" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y56" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U56" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V56" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W56" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X56" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y56" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z56" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA56" s="14">
         <v>57.3</v>
@@ -7860,25 +7960,25 @@
         <v>97</v>
       </c>
       <c r="T57" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U57" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X57" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y57" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U57" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V57" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W57" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X57" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y57" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z57" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AA57" s="14">
         <v>58.1</v>
@@ -7889,7 +7989,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C58" s="20">
         <f t="shared" si="0"/>
@@ -7945,25 +8045,25 @@
         <v>90</v>
       </c>
       <c r="T58" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U58" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W58" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X58" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y58" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U58" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V58" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W58" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X58" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y58" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z58" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AA58" s="14">
         <v>43</v>
@@ -7974,7 +8074,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C59" s="20">
         <f t="shared" si="0"/>
@@ -8030,25 +8130,25 @@
         <v>42</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U59" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V59" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W59" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X59" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y59" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA59" s="14">
         <v>62</v>
@@ -8115,25 +8215,25 @@
         <v>135</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U60" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W60" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V60" s="12" t="s">
+      <c r="X60" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y60" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W60" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="X60" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y60" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z60" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA60" s="14">
         <v>53.2</v>
@@ -8185,7 +8285,7 @@
         <v>24</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>25</v>
@@ -8200,25 +8300,25 @@
         <v>330</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U61" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V61" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W61" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X61" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y61" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AA61" s="14">
         <v>43</v>
@@ -8229,7 +8329,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C62" s="20">
         <f t="shared" si="0"/>
@@ -8285,25 +8385,25 @@
         <v>336</v>
       </c>
       <c r="T62" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U62" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X62" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y62" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U62" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V62" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W62" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X62" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y62" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z62" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA62" s="14">
         <v>40</v>
@@ -8370,25 +8470,25 @@
         <v>71</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U63" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V63" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W63" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X63" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y63" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA63" s="14">
         <v>40</v>
@@ -8455,25 +8555,25 @@
         <v>345</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U64" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V64" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W64" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X64" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y64" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AA64" s="14">
         <v>60.7</v>
@@ -8540,25 +8640,25 @@
         <v>313</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U65" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V65" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W65" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X65" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y65" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA65" s="14">
         <v>43</v>
@@ -8625,25 +8725,25 @@
         <v>258</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U66" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V66" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W66" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X66" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y66" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA66" s="14">
         <v>54.4</v>
@@ -8654,7 +8754,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C67" s="20">
         <f t="shared" si="0"/>
@@ -8710,25 +8810,25 @@
         <v>354</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U67" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V67" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W67" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X67" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y67" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA67" s="14">
         <v>55.3</v>
@@ -8795,25 +8895,25 @@
         <v>238</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U68" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V68" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W68" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X68" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y68" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z68" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AA68" s="14"/>
     </row>
@@ -8878,25 +8978,25 @@
         <v>359</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U69" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V69" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W69" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X69" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y69" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z69" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA69" s="14">
         <v>59.9</v>
@@ -8963,25 +9063,25 @@
         <v>366</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U70" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V70" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W70" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="X70" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y70" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W70" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="X70" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y70" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z70" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA70" s="14">
         <v>55.3</v>
@@ -8992,7 +9092,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>367</v>
+        <v>694</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" si="2"/>
@@ -9048,25 +9148,25 @@
         <v>370</v>
       </c>
       <c r="T71" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U71" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V71" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U71" s="12" t="s">
+      <c r="W71" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X71" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y71" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V71" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W71" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X71" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y71" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z71" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AA71" s="14">
         <v>43</v>
@@ -9077,7 +9177,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C72" s="20">
         <f t="shared" si="2"/>
@@ -9133,25 +9233,25 @@
         <v>372</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U72" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V72" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V72" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="W72" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X72" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y72" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z72" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA72" s="14">
         <v>58</v>
@@ -9218,25 +9318,25 @@
         <v>233</v>
       </c>
       <c r="T73" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U73" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V73" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W73" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="X73" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y73" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U73" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V73" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W73" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="X73" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y73" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z73" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA73" s="14">
         <v>58</v>
@@ -9247,7 +9347,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C74" s="20">
         <f t="shared" si="2"/>
@@ -9303,25 +9403,25 @@
         <v>372</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U74" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V74" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W74" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X74" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y74" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AA74" s="14">
         <v>40</v>
@@ -9388,27 +9488,29 @@
         <v>381</v>
       </c>
       <c r="T75" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U75" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V75" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X75" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y75" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U75" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V75" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W75" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X75" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y75" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z75" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA75" s="14"/>
+        <v>612</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>59.2</v>
+      </c>
     </row>
     <row r="76" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -9471,25 +9573,25 @@
         <v>233</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U76" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V76" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W76" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X76" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y76" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z76" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA76" s="14">
         <v>43</v>
@@ -9500,7 +9602,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="C77" s="20">
         <f t="shared" si="2"/>
@@ -9556,25 +9658,25 @@
         <v>391</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U77" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V77" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W77" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X77" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y77" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA77" s="14">
         <v>50</v>
@@ -9585,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>392</v>
+        <v>698</v>
       </c>
       <c r="C78" s="20">
         <f t="shared" si="2"/>
@@ -9641,28 +9743,28 @@
         <v>397</v>
       </c>
       <c r="T78" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U78" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V78" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U78" s="12" t="s">
+      <c r="W78" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X78" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y78" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V78" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="W78" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X78" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y78" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z78" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA78" s="14">
-        <v>59.2</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9670,7 +9772,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C79" s="20">
         <f t="shared" si="2"/>
@@ -9726,25 +9828,25 @@
         <v>403</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U79" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V79" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W79" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X79" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y79" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z79" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA79" s="14">
         <v>58.6</v>
@@ -9755,7 +9857,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>404</v>
+        <v>706</v>
       </c>
       <c r="C80" s="20">
         <f t="shared" si="2"/>
@@ -9811,28 +9913,28 @@
         <v>313</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U80" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V80" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W80" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X80" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y80" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z80" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA80" s="14">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9840,7 +9942,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>407</v>
+        <v>707</v>
       </c>
       <c r="C81" s="20">
         <f t="shared" si="2"/>
@@ -9896,28 +9998,28 @@
         <v>313</v>
       </c>
       <c r="T81" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U81" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V81" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W81" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X81" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y81" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U81" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V81" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W81" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X81" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y81" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z81" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AA81" s="14">
-        <v>51.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -9981,25 +10083,25 @@
         <v>313</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U82" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V82" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W82" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X82" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y82" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z82" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AA82" s="14">
         <v>58.6</v>
@@ -10010,7 +10112,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C83" s="20">
         <f t="shared" si="2"/>
@@ -10066,25 +10168,25 @@
         <v>419</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U83" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V83" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W83" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X83" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y83" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z83" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA83" s="14">
         <v>46</v>
@@ -10151,25 +10253,25 @@
         <v>424</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U84" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V84" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W84" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X84" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y84" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z84" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA84" s="14">
         <v>46</v>
@@ -10180,7 +10282,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>425</v>
+        <v>695</v>
       </c>
       <c r="C85" s="20">
         <f t="shared" si="2"/>
@@ -10218,34 +10320,36 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U85" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V85" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W85" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X85" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y85" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z85" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA85" s="14"/>
+        <v>622</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="86" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C86" s="20">
         <f t="shared" si="2"/>
@@ -10286,7 +10390,7 @@
         <v>24</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>25</v>
@@ -10301,25 +10405,25 @@
         <v>433</v>
       </c>
       <c r="T86" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U86" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V86" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W86" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X86" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y86" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U86" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V86" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W86" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X86" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y86" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z86" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA86" s="14">
         <v>51</v>
@@ -10386,27 +10490,29 @@
         <v>391</v>
       </c>
       <c r="T87" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U87" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V87" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W87" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X87" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y87" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U87" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V87" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W87" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X87" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y87" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z87" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA87" s="14"/>
+        <v>624</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>63</v>
+      </c>
     </row>
     <row r="88" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
@@ -10454,7 +10560,7 @@
         <v>109</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>25</v>
@@ -10469,25 +10575,25 @@
         <v>110</v>
       </c>
       <c r="T88" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U88" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V88" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U88" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V88" s="12" t="s">
+      <c r="W88" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="W88" s="12" t="s">
-        <v>538</v>
-      </c>
       <c r="X88" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y88" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="Y88" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z88" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA88" s="14">
         <v>57.9</v>
@@ -10498,7 +10604,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C89" s="20">
         <f t="shared" si="2"/>
@@ -10539,7 +10645,7 @@
         <v>192</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>25</v>
@@ -10554,25 +10660,25 @@
         <v>193</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U89" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V89" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W89" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X89" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y89" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="X89" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y89" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="Z89" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AA89" s="14">
         <v>44.4</v>
@@ -10583,7 +10689,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>440</v>
+        <v>696</v>
       </c>
       <c r="C90" s="20">
         <f t="shared" si="2"/>
@@ -10606,7 +10712,7 @@
         <v>105</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>441</v>
+        <v>697</v>
       </c>
       <c r="J90" s="13" t="s">
         <v>163</v>
@@ -10639,28 +10745,28 @@
         <v>167</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U90" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V90" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W90" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X90" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y90" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="X90" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y90" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="Z90" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AA90" s="14">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="168.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -10668,7 +10774,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C91" s="20">
         <f t="shared" si="2"/>
@@ -10691,16 +10797,16 @@
         <v>122</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J91" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="J91" s="13" t="s">
+      <c r="K91" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>41</v>
@@ -10709,7 +10815,7 @@
         <v>24</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>25</v>
@@ -10721,28 +10827,28 @@
         <v>-3.3780000000000001</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T91" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U91" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V91" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W91" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X91" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y91" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U91" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V91" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W91" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X91" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y91" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z91" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AA91" s="14">
         <v>54.8</v>
@@ -10753,7 +10859,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C92" s="20">
         <f t="shared" si="2"/>
@@ -10776,16 +10882,16 @@
         <v>79</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J92" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="J92" s="13" t="s">
+      <c r="K92" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>205</v>
@@ -10806,28 +10912,28 @@
         <v>-4.2229999999999999</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U92" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V92" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W92" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X92" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y92" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z92" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA92" s="14">
         <v>52</v>
@@ -10838,7 +10944,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C93" s="20">
         <f t="shared" si="2"/>
@@ -10861,16 +10967,16 @@
         <v>122</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J93" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="J93" s="13" t="s">
+      <c r="K93" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>41</v>
@@ -10882,7 +10988,7 @@
         <v>1975</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q93" s="2">
         <v>57.453000000000003</v>
@@ -10891,31 +10997,31 @@
         <v>-3.1160000000000001</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T93" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U93" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V93" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W93" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X93" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y93" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z93" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AA93" s="14">
-        <v>57</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="94" spans="1:27" ht="84.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -10923,7 +11029,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C94" s="20">
         <f t="shared" si="2"/>
@@ -10946,10 +11052,10 @@
         <v>29</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J94" s="13" t="s">
         <v>459</v>
-      </c>
-      <c r="J94" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>87</v>
@@ -10979,25 +11085,25 @@
         <v>90</v>
       </c>
       <c r="T94" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U94" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="V94" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W94" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X94" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y94" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U94" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="V94" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W94" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X94" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y94" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z94" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA94" s="14">
         <v>54.8</v>
@@ -11008,7 +11114,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C95" s="20">
         <f t="shared" si="2"/>
@@ -11031,16 +11137,16 @@
         <v>18</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="J95" s="13" t="s">
+      <c r="K95" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>205</v>
@@ -11061,28 +11167,28 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T95" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U95" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V95" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W95" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X95" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y95" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U95" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V95" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W95" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="X95" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y95" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z95" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA95" s="14">
         <v>52.1</v>
@@ -11093,7 +11199,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C96" s="20">
         <f t="shared" si="2"/>
@@ -11116,7 +11222,7 @@
         <v>79</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J96" s="13" t="s">
         <v>394</v>
@@ -11149,25 +11255,25 @@
         <v>397</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U96" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V96" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W96" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="W96" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X96" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y96" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z96" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA96" s="14">
         <v>51.4</v>
@@ -11178,7 +11284,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" s="20">
         <f t="shared" si="2"/>
@@ -11198,13 +11304,13 @@
         <v>28</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>118</v>
@@ -11234,25 +11340,25 @@
         <v>120</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U97" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V97" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W97" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X97" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y97" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z97" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AA97" s="14"/>
     </row>
@@ -11261,7 +11367,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C98" s="20">
         <f t="shared" si="2"/>
@@ -11284,16 +11390,16 @@
         <v>18</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J98" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>205</v>
@@ -11314,28 +11420,28 @@
         <v>-4.0789999999999997</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U98" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V98" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W98" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X98" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y98" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z98" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA98" s="14">
         <v>43</v>
@@ -11346,7 +11452,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>474</v>
+        <v>711</v>
       </c>
       <c r="C99" s="20">
         <f t="shared" si="2"/>
@@ -11366,22 +11472,22 @@
         <v>60</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="J99" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="J99" s="13" t="s">
+      <c r="K99" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>60</v>
@@ -11399,31 +11505,31 @@
         <v>139.90799999999999</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U99" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V99" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W99" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X99" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y99" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z99" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AA99" s="14">
-        <v>58.1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -11431,7 +11537,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C100" s="20">
         <f t="shared" si="2"/>
@@ -11454,25 +11560,25 @@
         <v>105</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J100" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="J100" s="13" t="s">
+      <c r="K100" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="M100" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>109</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>25</v>
@@ -11484,28 +11590,28 @@
         <v>134.989</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T100" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="U100" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V100" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W100" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="U100" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V100" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W100" s="12" t="s">
-        <v>538</v>
-      </c>
       <c r="X100" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y100" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z100" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AA100" s="14">
         <v>59.6</v>
@@ -11516,7 +11622,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C101" s="20">
         <f t="shared" si="2"/>
@@ -11539,7 +11645,7 @@
         <v>105</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J101" s="13" t="s">
         <v>362</v>
@@ -11572,25 +11678,25 @@
         <v>366</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U101" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V101" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W101" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X101" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y101" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="X101" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y101" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="Z101" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AA101" s="14">
         <v>43</v>
@@ -11601,7 +11707,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C102" s="20">
         <f t="shared" si="2"/>
@@ -11624,10 +11730,10 @@
         <v>105</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J102" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>310</v>
@@ -11657,25 +11763,25 @@
         <v>313</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U102" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V102" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W102" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X102" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y102" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z102" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AA102" s="14">
         <v>62</v>
@@ -11686,7 +11792,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C103" s="20">
         <f t="shared" si="2"/>
@@ -11709,10 +11815,10 @@
         <v>105</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J103" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>415</v>
@@ -11742,25 +11848,25 @@
         <v>419</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U103" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V103" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W103" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X103" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y103" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z103" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AA103" s="14">
         <v>48</v>
@@ -11771,7 +11877,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C104" s="20">
         <f t="shared" si="2"/>
@@ -11791,10 +11897,10 @@
         <v>60</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J104" s="13" t="s">
         <v>414</v>
@@ -11827,25 +11933,25 @@
         <v>419</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U104" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V104" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W104" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X104" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y104" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z104" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AA104" s="14">
         <v>40</v>
@@ -11856,7 +11962,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C105" s="20">
         <f t="shared" si="2"/>
@@ -11876,22 +11982,22 @@
         <v>60</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J105" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="J105" s="13" t="s">
+      <c r="K105" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>109</v>
@@ -11909,28 +12015,28 @@
         <v>136.964</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U105" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V105" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W105" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X105" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Y105" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z105" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AA105" s="14">
         <v>55</v>
@@ -11941,7 +12047,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C106" s="20">
         <f t="shared" si="2"/>
@@ -11964,16 +12070,16 @@
         <v>18</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J106" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="J106" s="13" t="s">
+      <c r="K106" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>83</v>
@@ -11994,28 +12100,28 @@
         <v>-4.2370000000000001</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U106" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V106" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W106" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X106" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y106" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z106" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA106" s="14">
         <v>48</v>
@@ -12026,7 +12132,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C107" s="20">
         <f t="shared" si="2"/>
@@ -12049,19 +12155,19 @@
         <v>105</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J107" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="J107" s="13" t="s">
+      <c r="K107" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>109</v>
@@ -12079,28 +12185,28 @@
         <v>144.84299999999999</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U107" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V107" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W107" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X107" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y107" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z107" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA107" s="14"/>
     </row>
@@ -12109,7 +12215,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>518</v>
+        <v>713</v>
       </c>
       <c r="C108" s="20">
         <f t="shared" si="2"/>
@@ -12132,7 +12238,7 @@
         <v>105</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J108" s="13" t="s">
         <v>387</v>
@@ -12165,28 +12271,28 @@
         <v>391</v>
       </c>
       <c r="T108" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U108" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V108" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="W108" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X108" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y108" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="U108" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="V108" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="W108" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="X108" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y108" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="Z108" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA108" s="14">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.4">
@@ -12414,11 +12520,7 @@
       <c r="AA115" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S115" xr:uid="{2061EB35-3899-4195-AE73-2ED475476BB1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S108">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AA1" xr:uid="{2061EB35-3899-4195-AE73-2ED475476BB1}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12430,8 +12532,8 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12457,13 +12559,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>661</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -12481,7 +12583,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.4">
@@ -12563,7 +12665,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C4" s="25">
         <f t="shared" si="0"/>
@@ -12816,7 +12918,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="0"/>
@@ -12830,7 +12932,7 @@
         <v>38000</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>18</v>
@@ -12853,7 +12955,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C12" s="25">
         <f t="shared" si="0"/>
@@ -12927,7 +13029,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C14" s="25">
         <f t="shared" si="0"/>
@@ -12941,7 +13043,7 @@
         <v>33000</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>18</v>
@@ -12964,7 +13066,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C15" s="25">
         <f t="shared" si="0"/>
@@ -13110,7 +13212,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" si="0"/>
@@ -13221,7 +13323,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C22" s="25">
         <f t="shared" si="0"/>
@@ -13295,7 +13397,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C24" s="25">
         <f t="shared" si="0"/>
@@ -13515,7 +13617,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C30" s="25">
         <f t="shared" si="0"/>
@@ -13552,7 +13654,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" s="25">
         <f t="shared" si="0"/>
@@ -13624,7 +13726,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C33" s="25">
         <f t="shared" si="0"/>
@@ -13698,7 +13800,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C35" s="25">
         <f t="shared" si="0"/>
@@ -13735,7 +13837,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C36" s="25">
         <f t="shared" si="0"/>
@@ -13844,7 +13946,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C39" s="25">
         <f t="shared" si="0"/>
@@ -13881,7 +13983,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C40" s="25">
         <f t="shared" si="0"/>
@@ -13918,7 +14020,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C41" s="25">
         <f t="shared" si="0"/>
@@ -14021,7 +14123,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C44" s="25">
         <f t="shared" si="0"/>
@@ -14095,7 +14197,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C46" s="25">
         <f t="shared" si="0"/>
@@ -14317,7 +14419,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" si="0"/>
@@ -14354,7 +14456,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C53" s="25">
         <f t="shared" si="0"/>
@@ -14391,7 +14493,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C54" s="25">
         <f t="shared" si="0"/>
@@ -14428,7 +14530,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C55" s="25">
         <f t="shared" si="0"/>
@@ -14539,7 +14641,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C58" s="25">
         <f t="shared" si="0"/>
@@ -14576,7 +14678,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C59" s="25">
         <f t="shared" si="0"/>
@@ -14687,7 +14789,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C62" s="25">
         <f t="shared" si="0"/>
@@ -14872,7 +14974,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C67" s="25">
         <f t="shared" si="0"/>
@@ -15055,7 +15157,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C72" s="25">
         <f t="shared" si="2"/>
@@ -15129,7 +15231,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C74" s="25">
         <f t="shared" si="2"/>
@@ -15312,7 +15414,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C79" s="25">
         <f t="shared" si="2"/>
@@ -15460,7 +15562,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C83" s="25">
         <f t="shared" si="2"/>
@@ -15563,7 +15665,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C86" s="25">
         <f t="shared" si="2"/>
@@ -15672,7 +15774,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C89" s="25">
         <f t="shared" si="2"/>
@@ -15746,7 +15848,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C91" s="25">
         <f t="shared" si="2"/>
@@ -15766,10 +15868,10 @@
         <v>122</v>
       </c>
       <c r="H91" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="I91" s="27" t="s">
         <v>444</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>445</v>
       </c>
       <c r="J91" s="27" t="s">
         <v>41</v>
@@ -15783,7 +15885,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C92" s="25">
         <f t="shared" si="2"/>
@@ -15803,10 +15905,10 @@
         <v>79</v>
       </c>
       <c r="H92" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="I92" s="27" t="s">
         <v>449</v>
-      </c>
-      <c r="I92" s="27" t="s">
-        <v>450</v>
       </c>
       <c r="J92" s="27" t="s">
         <v>205</v>
@@ -15820,7 +15922,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C93" s="25">
         <f t="shared" si="2"/>
@@ -15840,10 +15942,10 @@
         <v>122</v>
       </c>
       <c r="H93" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="I93" s="27" t="s">
         <v>455</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>456</v>
       </c>
       <c r="J93" s="27" t="s">
         <v>41</v>
@@ -15857,7 +15959,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C94" s="25">
         <f t="shared" si="2"/>
@@ -15894,7 +15996,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C95" s="25">
         <f t="shared" si="2"/>
@@ -15914,10 +16016,10 @@
         <v>18</v>
       </c>
       <c r="H95" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="I95" s="27" t="s">
         <v>464</v>
-      </c>
-      <c r="I95" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="J95" s="27" t="s">
         <v>205</v>
@@ -15931,7 +16033,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C96" s="25">
         <f t="shared" si="2"/>
@@ -15968,7 +16070,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" s="25">
         <f t="shared" si="2"/>
@@ -15985,7 +16087,7 @@
         <v>28</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H97" s="27" t="s">
         <v>118</v>
@@ -16003,7 +16105,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C98" s="25">
         <f t="shared" si="2"/>
@@ -16023,10 +16125,10 @@
         <v>18</v>
       </c>
       <c r="H98" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="I98" s="27" t="s">
         <v>464</v>
-      </c>
-      <c r="I98" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="J98" s="27" t="s">
         <v>205</v>
@@ -16040,7 +16142,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C99" s="25">
         <f t="shared" si="2"/>
@@ -16057,16 +16159,16 @@
         <v>60</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H99" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="I99" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="I99" s="24" t="s">
+      <c r="J99" s="24" t="s">
         <v>479</v>
-      </c>
-      <c r="J99" s="24" t="s">
-        <v>480</v>
       </c>
       <c r="K99" s="28">
         <v>58.1</v>
@@ -16077,7 +16179,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C100" s="25">
         <f t="shared" si="2"/>
@@ -16097,13 +16199,13 @@
         <v>105</v>
       </c>
       <c r="H100" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="I100" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="I100" s="27" t="s">
+      <c r="J100" s="27" t="s">
         <v>486</v>
-      </c>
-      <c r="J100" s="27" t="s">
-        <v>487</v>
       </c>
       <c r="K100" s="28">
         <v>59.6</v>
@@ -16114,7 +16216,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C101" s="25">
         <f t="shared" si="2"/>
@@ -16151,7 +16253,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C102" s="25">
         <f t="shared" si="2"/>
@@ -16188,7 +16290,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C103" s="25">
         <f t="shared" si="2"/>
@@ -16225,7 +16327,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C104" s="25">
         <f t="shared" si="2"/>
@@ -16242,7 +16344,7 @@
         <v>60</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H104" s="24" t="s">
         <v>415</v>
@@ -16262,7 +16364,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C105" s="25">
         <f t="shared" si="2"/>
@@ -16279,16 +16381,16 @@
         <v>60</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H105" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="I105" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="I105" s="27" t="s">
+      <c r="J105" s="27" t="s">
         <v>502</v>
-      </c>
-      <c r="J105" s="27" t="s">
-        <v>503</v>
       </c>
       <c r="K105" s="28">
         <v>55</v>
@@ -16299,7 +16401,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C106" s="25">
         <f t="shared" si="2"/>
@@ -16319,10 +16421,10 @@
         <v>18</v>
       </c>
       <c r="H106" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="I106" s="27" t="s">
         <v>508</v>
-      </c>
-      <c r="I106" s="27" t="s">
-        <v>509</v>
       </c>
       <c r="J106" s="27" t="s">
         <v>83</v>
@@ -16336,7 +16438,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C107" s="25">
         <f t="shared" si="2"/>
@@ -16356,13 +16458,13 @@
         <v>105</v>
       </c>
       <c r="H107" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="I107" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="I107" s="27" t="s">
+      <c r="J107" s="27" t="s">
         <v>515</v>
-      </c>
-      <c r="J107" s="27" t="s">
-        <v>516</v>
       </c>
       <c r="K107" s="28"/>
     </row>
@@ -16371,7 +16473,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C108" s="25">
         <f t="shared" si="2"/>

--- a/Whisky_List_Master.xlsx
+++ b/Whisky_List_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCEB55-A365-45BB-BF54-3CA0C0C184CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C42CA-B815-4501-A055-D040B9C17901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1200" windowWidth="23925" windowHeight="12510" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="715">
   <si>
     <t>番号</t>
   </si>
@@ -2545,6 +2545,10 @@
     <rPh sb="1" eb="2">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CARNMORE　GLENTAUCHERS11年2011-2023</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3149,8 +3153,8 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5463,7 +5467,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>714</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" si="0"/>
